--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/食品、饮料制造及烟草制品业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/食品、饮料制造及烟草制品业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,385 +558,306 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.756440358152365</v>
+        <v>0.789227358182428</v>
       </c>
       <c r="D2" t="n">
-        <v>0.024417083674058</v>
+        <v>0.022072062351035</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007377694259758</v>
+        <v>0.007610979869632</v>
       </c>
       <c r="F2" t="n">
-        <v>0.381573769988161</v>
+        <v>0.396560583641329</v>
       </c>
       <c r="G2" t="n">
-        <v>0.073958329093422</v>
+        <v>0.061381058432824</v>
       </c>
       <c r="H2" t="n">
-        <v>0.029439938030571</v>
+        <v>0.027636501024895</v>
       </c>
       <c r="I2" t="n">
-        <v>0.033623802437734</v>
+        <v>0.019022224662634</v>
       </c>
       <c r="J2" t="n">
-        <v>0.243559641847635</v>
+        <v>0.210772641817572</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000257388949025</v>
+        <v>0.000282664883849</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01521377966575</v>
+        <v>0.018277181070949</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02932037091794</v>
+        <v>0.030143181898212</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007539511362981</v>
+        <v>0.007229589030219</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003652667106113</v>
+        <v>0.002812967219752</v>
       </c>
       <c r="P2" t="n">
-        <v>0.077576152683628</v>
+        <v>0.06923221029355001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.011486036079608</v>
+        <v>0.01138865080339</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001793121347435</v>
+        <v>0.001829175269416</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05840135763285</v>
+        <v>0.061137148428564</v>
       </c>
       <c r="T2" t="n">
-        <v>0.028445016744203</v>
+        <v>0.030743014152083</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003587258083088</v>
+        <v>0.003095198689839</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005793229200825</v>
+        <v>0.005764909669749</v>
       </c>
       <c r="W2" t="n">
-        <v>0.009382823655626</v>
+        <v>0.010310807916341</v>
       </c>
       <c r="X2" t="n">
-        <v>0.006766449695133</v>
+        <v>0.006919174481527</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.190394219392089</v>
+        <v>0.206550716210212</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.789227358182428</v>
+        <v>0.764670508375796</v>
       </c>
       <c r="D3" t="n">
-        <v>0.022072062351035</v>
+        <v>0.013389488622456</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007610979869632</v>
+        <v>0.006298662812552</v>
       </c>
       <c r="F3" t="n">
-        <v>0.396560583641329</v>
+        <v>0.362001172027321</v>
       </c>
       <c r="G3" t="n">
-        <v>0.061381058432824</v>
+        <v>0.07296683302101099</v>
       </c>
       <c r="H3" t="n">
-        <v>0.027636501024895</v>
+        <v>0.019875313520283</v>
       </c>
       <c r="I3" t="n">
-        <v>0.019022224662634</v>
+        <v>0.024643611387402</v>
       </c>
       <c r="J3" t="n">
-        <v>0.210772641817572</v>
+        <v>0.235329491624204</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000282664883849</v>
+        <v>0.001083617054307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.018277181070949</v>
+        <v>0.012891847228135</v>
       </c>
       <c r="M3" t="n">
-        <v>0.030143181898212</v>
+        <v>0.051779784506823</v>
       </c>
       <c r="N3" t="n">
-        <v>0.007229589030219</v>
+        <v>0.003612807392474</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002812967219752</v>
+        <v>0.001603724837308</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06923221029355001</v>
+        <v>0.07090531843829299</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01138865080339</v>
+        <v>0.008903234460774999</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001829175269416</v>
+        <v>0.001718976538723</v>
       </c>
       <c r="S3" t="n">
-        <v>0.061137148428564</v>
+        <v>0.066813728777498</v>
       </c>
       <c r="T3" t="n">
-        <v>0.030743014152083</v>
+        <v>0.032744221897356</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003095198689839</v>
+        <v>0.002509882384248</v>
       </c>
       <c r="V3" t="n">
-        <v>0.005764909669749</v>
+        <v>0.003150502279283</v>
       </c>
       <c r="W3" t="n">
-        <v>0.010310807916341</v>
+        <v>0.010986104423844</v>
       </c>
       <c r="X3" t="n">
-        <v>0.006919174481527</v>
+        <v>0.004510032763006</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.206550716210212</v>
+        <v>0.227611135626902</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.764670508375796</v>
+        <v>0.772681396813656</v>
       </c>
       <c r="D4" t="n">
-        <v>0.013389488622456</v>
+        <v>0.011760053584432</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006298662812552</v>
+        <v>0.005997887334477</v>
       </c>
       <c r="F4" t="n">
-        <v>0.362001172027321</v>
+        <v>0.371685981232797</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07296683302101099</v>
+        <v>0.064178117992962</v>
       </c>
       <c r="H4" t="n">
-        <v>0.019875313520283</v>
+        <v>0.015676952468361</v>
       </c>
       <c r="I4" t="n">
-        <v>0.024643611387402</v>
+        <v>0.02115785423118</v>
       </c>
       <c r="J4" t="n">
-        <v>0.235329491624204</v>
+        <v>0.227318603186344</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001083617054307</v>
+        <v>0.001015722090525</v>
       </c>
       <c r="L4" t="n">
-        <v>0.012891847228135</v>
+        <v>0.014964165872699</v>
       </c>
       <c r="M4" t="n">
-        <v>0.051779784506823</v>
+        <v>0.047952018557423</v>
       </c>
       <c r="N4" t="n">
-        <v>0.003612807392474</v>
+        <v>0.003322205626214</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001603724837308</v>
+        <v>0.000632247147991</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07090531843829299</v>
+        <v>0.070828417250762</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.008903234460774999</v>
+        <v>0.005247458946388</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001718976538723</v>
+        <v>0.001713845333037</v>
       </c>
       <c r="S4" t="n">
-        <v>0.066813728777498</v>
+        <v>0.07115421371144</v>
       </c>
       <c r="T4" t="n">
-        <v>0.032744221897356</v>
+        <v>0.024262068235637</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002509882384248</v>
+        <v>0.001395653781441</v>
       </c>
       <c r="V4" t="n">
-        <v>0.003150502279283</v>
+        <v>0.00243211596943</v>
       </c>
       <c r="W4" t="n">
-        <v>0.010986104423844</v>
+        <v>0.009460399083658</v>
       </c>
       <c r="X4" t="n">
-        <v>0.004510032763006</v>
+        <v>0.0040537853284</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.227611135626902</v>
+        <v>0.251108836220747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.772681396813656</v>
+        <v>0.763567622578891</v>
       </c>
       <c r="D5" t="n">
-        <v>0.011760053584432</v>
+        <v>0.000598602553951</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005997887334477</v>
+        <v>0.032630684983581</v>
       </c>
       <c r="F5" t="n">
-        <v>0.371685981232797</v>
+        <v>0.358970439806893</v>
       </c>
       <c r="G5" t="n">
-        <v>0.064178117992962</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.015676952468361</v>
-      </c>
+        <v>0.082220052571848</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.02115785423118</v>
+        <v>0.021226213480535</v>
       </c>
       <c r="J5" t="n">
-        <v>0.227318603186344</v>
+        <v>0.236432377421109</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001015722090525</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.014964165872699</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.047952018557423</v>
-      </c>
+        <v>0.000190129047325</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.003322205626214</v>
+        <v>0.004139486958415</v>
       </c>
       <c r="O5" t="n">
-        <v>0.000632247147991</v>
+        <v>0.019433426122875</v>
       </c>
       <c r="P5" t="n">
-        <v>0.070828417250762</v>
+        <v>0.065576445015745</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.005247458946388</v>
+        <v>0.009406523776833001</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001713845333037</v>
+        <v>0.003551447749707</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07115421371144</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.024262068235637</v>
-      </c>
+        <v>0.067409666352981</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.001395653781441</v>
+        <v>0.00281089580802</v>
       </c>
       <c r="V5" t="n">
-        <v>0.00243211596943</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.009460399083658</v>
-      </c>
+        <v>0.003814420808288</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>0.0040537853284</v>
+        <v>0.004730297356025</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.251108836220747</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.763567622578891</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.000598602553951</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.032630684983581</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.358970439806893</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.082220052571848</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.021226213480535</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.236432377421109</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.000190129047325</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.004139486958415</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.019433426122875</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.065576445015745</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.009406523776833001</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.003551447749707</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.067409666352981</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>0.00281089580802</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.003814420808288</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>0.004730297356025</v>
-      </c>
-      <c r="Y6" t="n">
         <v>0.213541451749665</v>
       </c>
     </row>
